--- a/apps/load_data/2020/11/PLMOVMAE.xlsx
+++ b/apps/load_data/2020/11/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-\HHY1120\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-m\HHY1120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB7C26B-E303-4EFC-A623-83EB0A6F3EF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0877C6-DC73-4DBA-9144-3092E609CBB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$265</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$263</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11238" uniqueCount="3374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11218" uniqueCount="3371">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7249,9 +7250,6 @@
     <t>0057A         2</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8557,9 +8555,6 @@
     <t>0004A         2</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8864,9 +8859,6 @@
   </si>
   <si>
     <t>0126A         2</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -11003,8 +10995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264:XFD265"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA272" sqref="AA272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42987,12 +42979,7 @@
       <c r="AB173" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2408</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>106</v>
       </c>
@@ -43045,16 +43032,16 @@
         <v>20</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2410</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2411</v>
       </c>
       <c r="BM173" s="1" t="s">
         <v>117</v>
@@ -43069,13 +43056,13 @@
         <v>166</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BS173" s="3">
         <v>36225</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>121</v>
@@ -43096,19 +43083,19 @@
         <v>111</v>
       </c>
       <c r="CC173" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="CD173" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="CD173" s="1" t="s">
+      <c r="CE173" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CG173" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="CG173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>129</v>
@@ -43146,19 +43133,19 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2421</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="Q174" s="3">
         <v>27241</v>
@@ -43184,12 +43171,7 @@
       <c r="AB174" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2408</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>106</v>
       </c>
@@ -43236,7 +43218,7 @@
         <v>111</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BB174" s="1">
         <v>11</v>
@@ -43245,13 +43227,13 @@
         <v>20</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>1810</v>
@@ -43266,13 +43248,13 @@
         <v>102</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BS174" s="3">
         <v>36949</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>121</v>
@@ -43296,16 +43278,16 @@
         <v>111</v>
       </c>
       <c r="CC174" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="CD174" s="1" t="s">
         <v>2092</v>
       </c>
       <c r="CE174" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="CG174" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="CG174" s="1" t="s">
-        <v>2430</v>
       </c>
       <c r="CH174" s="1" t="s">
         <v>1816</v>
@@ -43346,19 +43328,19 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2432</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2433</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="Q175" s="3">
         <v>25223</v>
@@ -43384,12 +43366,7 @@
       <c r="AB175" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2408</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>106</v>
       </c>
@@ -43436,7 +43413,7 @@
         <v>111</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BB175" s="1">
         <v>11</v>
@@ -43445,13 +43422,13 @@
         <v>20</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>117</v>
@@ -43466,13 +43443,13 @@
         <v>166</v>
       </c>
       <c r="BR175" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BS175" s="3">
         <v>36825</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>121</v>
@@ -43496,16 +43473,16 @@
         <v>111</v>
       </c>
       <c r="CC175" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="CD175" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="CD175" s="1" t="s">
+      <c r="CE175" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CG175" s="1" t="s">
         <v>2442</v>
-      </c>
-      <c r="CG175" s="1" t="s">
-        <v>2443</v>
       </c>
       <c r="CH175" s="1" t="s">
         <v>129</v>
@@ -43546,19 +43523,19 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2446</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="Q176" s="3">
         <v>27018</v>
@@ -43581,12 +43558,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2408</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>106</v>
       </c>
@@ -43636,7 +43608,7 @@
         <v>111</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BB176" s="1">
         <v>11</v>
@@ -43645,13 +43617,13 @@
         <v>20</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BM176" s="1" t="s">
         <v>117</v>
@@ -43660,7 +43632,7 @@
         <v>105</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>121</v>
@@ -43678,16 +43650,16 @@
         <v>111</v>
       </c>
       <c r="CC176" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="CD176" s="1" t="s">
         <v>1290</v>
       </c>
       <c r="CE176" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="CG176" s="1" t="s">
         <v>2453</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2454</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>129</v>
@@ -43728,19 +43700,19 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="Q177" s="3">
         <v>29037</v>
@@ -43766,12 +43738,7 @@
       <c r="AB177" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2408</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>106</v>
       </c>
@@ -43821,7 +43788,7 @@
         <v>111</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BB177" s="1">
         <v>11</v>
@@ -43830,13 +43797,13 @@
         <v>20</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>1178</v>
@@ -43848,7 +43815,7 @@
         <v>105</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>121</v>
@@ -43869,13 +43836,13 @@
         <v>713</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>1184</v>
@@ -43916,19 +43883,19 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="Q178" s="3">
         <v>26647</v>
@@ -43951,12 +43918,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2408</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>106</v>
       </c>
@@ -44006,7 +43968,7 @@
         <v>111</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BB178" s="1">
         <v>11</v>
@@ -44015,13 +43977,13 @@
         <v>20</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BM178" s="1" t="s">
         <v>117</v>
@@ -44030,7 +43992,7 @@
         <v>105</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>121</v>
@@ -44048,16 +44010,16 @@
         <v>111</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="CD178" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="CD178" s="1" t="s">
-        <v>2474</v>
-      </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>129</v>
@@ -44098,19 +44060,19 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2479</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="Q179" s="3">
         <v>25405</v>
@@ -44139,12 +44101,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2408</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>106</v>
       </c>
@@ -44191,7 +44148,7 @@
         <v>111</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BB179" s="1">
         <v>11</v>
@@ -44200,16 +44157,16 @@
         <v>20</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH179" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="BI179" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="BI179" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="BM179" s="1" t="s">
         <v>117</v>
@@ -44221,13 +44178,13 @@
         <v>118</v>
       </c>
       <c r="BR179" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BS179" s="3">
         <v>35243</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>121</v>
@@ -44245,19 +44202,19 @@
         <v>111</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2487</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="CG179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>129</v>
@@ -44295,19 +44252,19 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2494</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="Q180" s="3">
         <v>28845</v>
@@ -44330,12 +44287,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2408</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>106</v>
       </c>
@@ -44385,7 +44337,7 @@
         <v>111</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BB180" s="1">
         <v>11</v>
@@ -44394,13 +44346,13 @@
         <v>20</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>775</v>
@@ -44412,7 +44364,7 @@
         <v>105</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>121</v>
@@ -44430,16 +44382,16 @@
         <v>111</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2503</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>781</v>
@@ -44480,19 +44432,19 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="Q181" s="3">
         <v>21425</v>
@@ -44515,12 +44467,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2408</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>106</v>
       </c>
@@ -44570,7 +44517,7 @@
         <v>111</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BB181" s="1">
         <v>11</v>
@@ -44579,13 +44526,13 @@
         <v>20</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BI181" s="1" t="s">
         <v>1192</v>
@@ -44600,7 +44547,7 @@
         <v>166</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>121</v>
@@ -44618,16 +44565,16 @@
         <v>111</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>1199</v>
@@ -44644,13 +44591,13 @@
         <v>88</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>111</v>
@@ -44662,25 +44609,25 @@
         <v>94</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="Q182" s="3">
         <v>23286</v>
@@ -44706,12 +44653,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2408</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>106</v>
       </c>
@@ -44761,7 +44703,7 @@
         <v>111</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BB182" s="1">
         <v>11</v>
@@ -44770,13 +44712,13 @@
         <v>20</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>117</v>
@@ -44785,7 +44727,7 @@
         <v>105</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>121</v>
@@ -44806,16 +44748,16 @@
         <v>111</v>
       </c>
       <c r="CC182" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="CD182" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="CD182" s="1" t="s">
+      <c r="CE182" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="CE182" s="1" t="s">
+      <c r="CG182" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="CG182" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="CH182" s="1" t="s">
         <v>129</v>
@@ -44856,19 +44798,19 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="Q183" s="3">
         <v>26907</v>
@@ -44891,12 +44833,7 @@
       <c r="AA183" s="1">
         <v>0</v>
       </c>
-      <c r="AC183" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD183" s="1" t="s">
-        <v>2408</v>
-      </c>
+      <c r="AC183" s="3"/>
       <c r="AF183" s="1" t="s">
         <v>106</v>
       </c>
@@ -44943,7 +44880,7 @@
         <v>111</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BB183" s="1">
         <v>11</v>
@@ -44952,13 +44889,13 @@
         <v>20</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>775</v>
@@ -44973,13 +44910,13 @@
         <v>118</v>
       </c>
       <c r="BR183" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BS183" s="3">
         <v>35950</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>121</v>
@@ -44997,16 +44934,16 @@
         <v>111</v>
       </c>
       <c r="CC183" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="CD183" s="1" t="s">
         <v>1885</v>
       </c>
       <c r="CE183" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="CG183" s="1" t="s">
         <v>2542</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2543</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>781</v>
@@ -45047,19 +44984,19 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2545</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2546</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="Q184" s="3">
         <v>28642</v>
@@ -45134,7 +45071,7 @@
         <v>111</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BB184" s="1">
         <v>11</v>
@@ -45143,13 +45080,13 @@
         <v>20</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BM184" s="1" t="s">
         <v>117</v>
@@ -45161,7 +45098,7 @@
         <v>166</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>121</v>
@@ -45179,16 +45116,16 @@
         <v>111</v>
       </c>
       <c r="CC184" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="CD184" s="1" t="s">
         <v>435</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="CG184" s="1" t="s">
         <v>2553</v>
-      </c>
-      <c r="CG184" s="1" t="s">
-        <v>2554</v>
       </c>
       <c r="CH184" s="1" t="s">
         <v>129</v>
@@ -45229,19 +45166,19 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2556</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2557</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="Q185" s="3">
         <v>28239</v>
@@ -45310,7 +45247,7 @@
         <v>111</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BB185" s="1">
         <v>11</v>
@@ -45319,13 +45256,13 @@
         <v>20</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>1938</v>
@@ -45340,13 +45277,13 @@
         <v>236</v>
       </c>
       <c r="BR185" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BS185" s="3">
         <v>36099</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>121</v>
@@ -45364,16 +45301,16 @@
         <v>111</v>
       </c>
       <c r="CC185" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="CD185" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="CD185" s="1" t="s">
+      <c r="CE185" s="1" t="s">
         <v>2565</v>
       </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CG185" s="1" t="s">
         <v>2566</v>
-      </c>
-      <c r="CG185" s="1" t="s">
-        <v>2567</v>
       </c>
       <c r="CH185" s="1" t="s">
         <v>1944</v>
@@ -45414,19 +45351,19 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2569</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2570</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="Q186" s="3">
         <v>25589</v>
@@ -45495,7 +45432,7 @@
         <v>111</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="BB186" s="1">
         <v>11</v>
@@ -45504,16 +45441,16 @@
         <v>20</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH186" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="BI186" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="BI186" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="BM186" s="1" t="s">
         <v>117</v>
@@ -45525,13 +45462,13 @@
         <v>102</v>
       </c>
       <c r="BR186" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BS186" s="3">
         <v>37735</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>121</v>
@@ -45549,19 +45486,19 @@
         <v>111</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2578</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2579</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="CG186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2581</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2582</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>129</v>
@@ -45599,19 +45536,19 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="Q187" s="3">
         <v>29170</v>
@@ -45683,7 +45620,7 @@
         <v>111</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BB187" s="1">
         <v>11</v>
@@ -45692,13 +45629,13 @@
         <v>20</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>117</v>
@@ -45707,7 +45644,7 @@
         <v>105</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>121</v>
@@ -45725,16 +45662,16 @@
         <v>111</v>
       </c>
       <c r="CC187" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="CD187" s="1" t="s">
         <v>909</v>
       </c>
       <c r="CE187" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="CG187" s="1" t="s">
         <v>2592</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2593</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>129</v>
@@ -45757,7 +45694,7 @@
         <v>191</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>111</v>
@@ -45769,25 +45706,25 @@
         <v>94</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2598</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="Q188" s="3">
         <v>27250</v>
@@ -45817,7 +45754,7 @@
         <v>106</v>
       </c>
       <c r="AG188" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="AH188" s="1" t="s">
         <v>2011</v>
@@ -45862,7 +45799,7 @@
         <v>111</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BB188" s="1">
         <v>11</v>
@@ -45871,13 +45808,13 @@
         <v>20</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>117</v>
@@ -45886,7 +45823,7 @@
         <v>105</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>121</v>
@@ -45895,7 +45832,7 @@
         <v>0</v>
       </c>
       <c r="BZ188" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="CA188" s="1" t="s">
         <v>123</v>
@@ -45907,13 +45844,13 @@
         <v>1670</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2606</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CG188" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="CG188" s="1" t="s">
-        <v>2608</v>
       </c>
       <c r="CH188" s="1" t="s">
         <v>129</v>
@@ -45954,19 +45891,19 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="Q189" s="3">
         <v>27999</v>
@@ -46038,7 +45975,7 @@
         <v>111</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="BB189" s="1">
         <v>11</v>
@@ -46047,16 +45984,16 @@
         <v>20</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2616</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>117</v>
@@ -46068,13 +46005,13 @@
         <v>102</v>
       </c>
       <c r="BR189" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BS189" s="3">
         <v>43602</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>121</v>
@@ -46098,13 +46035,13 @@
         <v>998</v>
       </c>
       <c r="CE189" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="CG189" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="CG189" s="1" t="s">
+      <c r="CH189" s="1" t="s">
         <v>2620</v>
-      </c>
-      <c r="CH189" s="1" t="s">
-        <v>2621</v>
       </c>
       <c r="CI189" s="1" t="s">
         <v>129</v>
@@ -46142,19 +46079,19 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2623</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2624</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="Q190" s="3">
         <v>29305</v>
@@ -46226,7 +46163,7 @@
         <v>111</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="BB190" s="1">
         <v>11</v>
@@ -46235,13 +46172,13 @@
         <v>20</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>117</v>
@@ -46250,7 +46187,7 @@
         <v>105</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>121</v>
@@ -46268,16 +46205,16 @@
         <v>111</v>
       </c>
       <c r="CC190" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="CD190" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="CD190" s="1" t="s">
+      <c r="CE190" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CG190" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="CG190" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="CH190" s="1" t="s">
         <v>129</v>
@@ -46318,19 +46255,19 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="Q191" s="3">
         <v>23125</v>
@@ -46363,7 +46300,7 @@
         <v>42247</v>
       </c>
       <c r="AD191" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="AF191" s="1" t="s">
         <v>106</v>
@@ -46417,16 +46354,16 @@
         <v>20</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH191" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="BI191" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="BI191" s="1" t="s">
-        <v>2641</v>
       </c>
       <c r="BM191" s="1" t="s">
         <v>117</v>
@@ -46438,13 +46375,13 @@
         <v>236</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BS191" s="3">
         <v>36580</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>121</v>
@@ -46465,7 +46402,7 @@
         <v>111</v>
       </c>
       <c r="CC191" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="CD191" s="1" t="s">
         <v>306</v>
@@ -46474,10 +46411,10 @@
         <v>1700</v>
       </c>
       <c r="CG191" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="CH191" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>129</v>
@@ -46515,19 +46452,19 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2648</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2649</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="Q192" s="3">
         <v>30023</v>
@@ -46602,13 +46539,13 @@
         <v>20</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>1988</v>
@@ -46623,13 +46560,13 @@
         <v>118</v>
       </c>
       <c r="BR192" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BS192" s="3">
         <v>37747</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>121</v>
@@ -46653,10 +46590,10 @@
         <v>700</v>
       </c>
       <c r="CE192" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="CG192" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>1995</v>
@@ -46697,19 +46634,19 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2658</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2659</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="Q193" s="3">
         <v>26205</v>
@@ -46787,13 +46724,13 @@
         <v>20</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>117</v>
@@ -46802,7 +46739,7 @@
         <v>105</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>121</v>
@@ -46820,16 +46757,16 @@
         <v>111</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="CD193" s="1" t="s">
         <v>2664</v>
       </c>
-      <c r="CD193" s="1" t="s">
+      <c r="CE193" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2666</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2667</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>129</v>
@@ -46870,19 +46807,19 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2668</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2669</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2670</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="Q194" s="3">
         <v>31662</v>
@@ -46960,13 +46897,13 @@
         <v>20</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>117</v>
@@ -46975,7 +46912,7 @@
         <v>166</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>121</v>
@@ -46993,16 +46930,16 @@
         <v>111</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2677</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2678</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>129</v>
@@ -47043,19 +46980,19 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2679</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2680</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2681</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="Q195" s="3">
         <v>29117</v>
@@ -47130,16 +47067,16 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2685</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>117</v>
@@ -47151,13 +47088,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="BS195" s="3">
         <v>37334</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>121</v>
@@ -47178,16 +47115,16 @@
         <v>541</v>
       </c>
       <c r="CD195" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2688</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2689</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2690</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2691</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>129</v>
@@ -47225,19 +47162,19 @@
         <v>496</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2693</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2694</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="Q196" s="3">
         <v>30007</v>
@@ -47312,13 +47249,13 @@
         <v>20</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="BI196" s="1" t="s">
         <v>2192</v>
@@ -47333,13 +47270,13 @@
         <v>102</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="BS196" s="3">
         <v>37904</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>121</v>
@@ -47360,13 +47297,13 @@
         <v>998</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2701</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2702</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>2198</v>
@@ -47389,7 +47326,7 @@
         <v>191</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>111</v>
@@ -47401,25 +47338,25 @@
         <v>94</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2703</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2704</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2705</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="Q197" s="3">
         <v>26221</v>
@@ -47494,13 +47431,13 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>117</v>
@@ -47512,13 +47449,13 @@
         <v>118</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="BS197" s="3">
         <v>36111</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>121</v>
@@ -47527,7 +47464,7 @@
         <v>0</v>
       </c>
       <c r="BZ197" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="CA197" s="1" t="s">
         <v>123</v>
@@ -47536,16 +47473,16 @@
         <v>111</v>
       </c>
       <c r="CC197" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="CD197" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="CE197" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="CG197" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>129</v>
@@ -47586,19 +47523,19 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2715</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2716</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="Q198" s="3">
         <v>27571</v>
@@ -47673,16 +47610,16 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH198" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="BI198" s="1" t="s">
         <v>2719</v>
-      </c>
-      <c r="BI198" s="1" t="s">
-        <v>2720</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>117</v>
@@ -47694,13 +47631,13 @@
         <v>118</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="BS198" s="3">
         <v>37785</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>121</v>
@@ -47718,19 +47655,19 @@
         <v>111</v>
       </c>
       <c r="CC198" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="CD198" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="CD198" s="1" t="s">
+      <c r="CE198" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="CG198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2726</v>
-      </c>
-      <c r="CH198" s="1" t="s">
-        <v>2727</v>
       </c>
       <c r="CI198" s="1" t="s">
         <v>129</v>
@@ -47744,10 +47681,10 @@
         <v>88</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>152</v>
@@ -47762,16 +47699,16 @@
         <v>94</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="L199" s="1" t="s">
-        <v>2731</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -47846,7 +47783,7 @@
         <v>20</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>117</v>
@@ -47861,7 +47798,7 @@
         <v>0</v>
       </c>
       <c r="BZ199" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="CA199" s="1" t="s">
         <v>123</v>
@@ -47870,7 +47807,7 @@
         <v>111</v>
       </c>
       <c r="CC199" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="CG199" s="1" t="s">
         <v>129</v>
@@ -47914,19 +47851,19 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2735</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2736</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="Q200" s="3">
         <v>30993</v>
@@ -47998,7 +47935,7 @@
         <v>111</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BB200" s="1">
         <v>11</v>
@@ -48007,13 +47944,13 @@
         <v>20</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>117</v>
@@ -48022,7 +47959,7 @@
         <v>105</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>121</v>
@@ -48040,16 +47977,16 @@
         <v>111</v>
       </c>
       <c r="CC200" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="CD200" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="CD200" s="1" t="s">
+      <c r="CE200" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2744</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2745</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>129</v>
@@ -48090,19 +48027,19 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="Q201" s="3">
         <v>30065</v>
@@ -48174,7 +48111,7 @@
         <v>111</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="BB201" s="1">
         <v>11</v>
@@ -48183,13 +48120,13 @@
         <v>20</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1988</v>
@@ -48201,7 +48138,7 @@
         <v>105</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>121</v>
@@ -48219,16 +48156,16 @@
         <v>111</v>
       </c>
       <c r="CC201" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="CD201" s="1" t="s">
         <v>1167</v>
       </c>
       <c r="CE201" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="CG201" s="1" t="s">
         <v>2754</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2755</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>1995</v>
@@ -48269,19 +48206,19 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2756</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2757</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2758</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="Q202" s="3">
         <v>30033</v>
@@ -48353,7 +48290,7 @@
         <v>111</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="BB202" s="1">
         <v>11</v>
@@ -48362,13 +48299,13 @@
         <v>20</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="BM202" s="1" t="s">
         <v>117</v>
@@ -48377,7 +48314,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>121</v>
@@ -48398,13 +48335,13 @@
         <v>1167</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CG202" s="1" t="s">
         <v>2765</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2766</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>129</v>
@@ -48445,19 +48382,19 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2768</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2769</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="Q203" s="3">
         <v>29411</v>
@@ -48529,7 +48466,7 @@
         <v>111</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="BB203" s="1">
         <v>11</v>
@@ -48538,13 +48475,13 @@
         <v>20</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>1988</v>
@@ -48562,13 +48499,13 @@
         <v>166</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="BS203" s="3">
         <v>37513</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>121</v>
@@ -48586,16 +48523,16 @@
         <v>111</v>
       </c>
       <c r="CC203" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="CD203" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE203" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="CG203" s="1" t="s">
         <v>2777</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2778</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1995</v>
@@ -48636,19 +48573,19 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2780</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2781</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="Q204" s="3">
         <v>32173</v>
@@ -48723,16 +48660,16 @@
         <v>20</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2784</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2785</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>117</v>
@@ -48744,13 +48681,13 @@
         <v>102</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="BS204" s="3">
         <v>41024</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>121</v>
@@ -48768,19 +48705,19 @@
         <v>111</v>
       </c>
       <c r="CC204" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="CD204" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="CD204" s="1" t="s">
+      <c r="CE204" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CG204" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="CG204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2791</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2792</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>129</v>
@@ -48818,19 +48755,19 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2794</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2795</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="Q205" s="3">
         <v>18645</v>
@@ -48860,7 +48797,7 @@
         <v>106</v>
       </c>
       <c r="AG205" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="AH205" s="1" t="s">
         <v>2011</v>
@@ -48905,7 +48842,7 @@
         <v>111</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="BB205" s="1">
         <v>11</v>
@@ -48914,13 +48851,13 @@
         <v>20</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>1178</v>
@@ -48935,13 +48872,13 @@
         <v>118</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="BS205" s="3">
         <v>34808</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>121</v>
@@ -48959,16 +48896,16 @@
         <v>111</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2804</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2805</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>1184</v>
@@ -49009,19 +48946,19 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2807</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2808</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="Q206" s="3">
         <v>30408</v>
@@ -49090,7 +49027,7 @@
         <v>111</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="BB206" s="1">
         <v>11</v>
@@ -49099,13 +49036,13 @@
         <v>20</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>1192</v>
@@ -49120,13 +49057,13 @@
         <v>102</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="BS206" s="3">
         <v>37336</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>121</v>
@@ -49144,16 +49081,16 @@
         <v>111</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2815</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2817</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2818</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>1199</v>
@@ -49194,19 +49131,19 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2820</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2821</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="Q207" s="3">
         <v>28132</v>
@@ -49278,7 +49215,7 @@
         <v>111</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="BB207" s="1">
         <v>11</v>
@@ -49287,13 +49224,13 @@
         <v>20</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>1207</v>
@@ -49305,7 +49242,7 @@
         <v>105</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>121</v>
@@ -49323,16 +49260,16 @@
         <v>111</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2827</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2828</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2829</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2830</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>1213</v>
@@ -49373,19 +49310,19 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2832</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2833</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="Q208" s="3">
         <v>31743</v>
@@ -49466,13 +49403,13 @@
         <v>20</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>117</v>
@@ -49481,7 +49418,7 @@
         <v>105</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>121</v>
@@ -49499,16 +49436,16 @@
         <v>111</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2837</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="CE208" s="1" t="s">
-        <v>2839</v>
-      </c>
       <c r="CG208" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="CH208" s="1" t="s">
         <v>129</v>
@@ -49549,19 +49486,19 @@
         <v>2261</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2840</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2841</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2842</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P209" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="Q209" s="3">
         <v>23750</v>
@@ -49590,12 +49527,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2844</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>106</v>
       </c>
@@ -49645,7 +49577,7 @@
         <v>111</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="BB209" s="1">
         <v>11</v>
@@ -49654,16 +49586,16 @@
         <v>20</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="BG209" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="BI209" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>117</v>
@@ -49672,7 +49604,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>121</v>
@@ -49684,7 +49616,7 @@
         <v>110</v>
       </c>
       <c r="BZ209" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="CA209" s="1" t="s">
         <v>123</v>
@@ -49696,16 +49628,16 @@
         <v>1224</v>
       </c>
       <c r="CD209" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="CE209" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="CG209" s="1" t="s">
         <v>2851</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CH209" s="1" t="s">
         <v>2852</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2853</v>
-      </c>
-      <c r="CH209" s="1" t="s">
-        <v>2854</v>
       </c>
       <c r="CI209" s="1" t="s">
         <v>129</v>
@@ -49743,10 +49675,10 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>110</v>
@@ -49770,7 +49702,7 @@
         <v>106</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>389</v>
@@ -49824,10 +49756,10 @@
         <v>111</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="211" spans="1:87" x14ac:dyDescent="0.25">
@@ -49838,13 +49770,13 @@
         <v>88</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>2517</v>
-      </c>
       <c r="E211" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>111</v>
@@ -49856,16 +49788,16 @@
         <v>94</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>110</v>
@@ -49889,7 +49821,7 @@
         <v>106</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>389</v>
@@ -49934,7 +49866,7 @@
         <v>0</v>
       </c>
       <c r="BZ211" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="CA211" s="1" t="s">
         <v>123</v>
@@ -49943,10 +49875,10 @@
         <v>111</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -49981,10 +49913,10 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>110</v>
@@ -50008,7 +49940,7 @@
         <v>106</v>
       </c>
       <c r="AG212" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="AH212" s="1" t="s">
         <v>389</v>
@@ -50062,10 +49994,10 @@
         <v>111</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -50082,7 +50014,7 @@
         <v>90</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>92</v>
@@ -50094,16 +50026,16 @@
         <v>94</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>110</v>
@@ -50172,7 +50104,7 @@
         <v>0</v>
       </c>
       <c r="BZ213" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="CA213" s="1" t="s">
         <v>123</v>
@@ -50181,10 +50113,10 @@
         <v>111</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -50219,10 +50151,10 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>110</v>
@@ -50300,10 +50232,10 @@
         <v>111</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -50320,7 +50252,7 @@
         <v>90</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>92</v>
@@ -50332,16 +50264,16 @@
         <v>94</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>110</v>
@@ -50410,7 +50342,7 @@
         <v>0</v>
       </c>
       <c r="BZ215" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="CA215" s="1" t="s">
         <v>123</v>
@@ -50419,10 +50351,10 @@
         <v>111</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -50457,10 +50389,10 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>110</v>
@@ -50538,10 +50470,10 @@
         <v>111</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="CE216" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="217" spans="1:87" x14ac:dyDescent="0.25">
@@ -50576,19 +50508,19 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2877</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2878</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2879</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="Q217" s="3">
         <v>26043</v>
@@ -50611,12 +50543,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2844</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>106</v>
       </c>
@@ -50669,13 +50596,13 @@
         <v>20</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>1178</v>
@@ -50690,13 +50617,13 @@
         <v>102</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="BS217" s="3">
         <v>36306</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>121</v>
@@ -50714,16 +50641,16 @@
         <v>111</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="CD217" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="CE217" s="1" t="s">
         <v>2885</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CG217" s="1" t="s">
         <v>2886</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2887</v>
-      </c>
-      <c r="CG217" s="1" t="s">
-        <v>2888</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>1184</v>
@@ -50764,19 +50691,19 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2889</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2890</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2891</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="Q218" s="3">
         <v>29945</v>
@@ -50799,12 +50726,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2844</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>106</v>
       </c>
@@ -50860,13 +50782,13 @@
         <v>20</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>117</v>
@@ -50875,7 +50797,7 @@
         <v>105</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>121</v>
@@ -50893,16 +50815,16 @@
         <v>111</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="CG218" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>129</v>
@@ -50943,19 +50865,19 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2899</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2900</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2901</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="Q219" s="3">
         <v>29034</v>
@@ -50981,12 +50903,7 @@
       <c r="AB219" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2844</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>106</v>
       </c>
@@ -51039,13 +50956,13 @@
         <v>20</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>1178</v>
@@ -51060,13 +50977,13 @@
         <v>102</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="BS219" s="3">
         <v>38234</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>121</v>
@@ -51084,16 +51001,16 @@
         <v>111</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="CG219" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>1184</v>
@@ -51134,19 +51051,19 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2910</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2911</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2912</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="Q220" s="3">
         <v>29062</v>
@@ -51169,12 +51086,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2844</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>106</v>
       </c>
@@ -51230,13 +51142,13 @@
         <v>20</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>623</v>
@@ -51248,7 +51160,7 @@
         <v>105</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>121</v>
@@ -51266,16 +51178,16 @@
         <v>111</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="CD220" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="CE220" s="1" t="s">
         <v>2917</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CG220" s="1" t="s">
         <v>2918</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2919</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2920</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>629</v>
@@ -51316,19 +51228,19 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2921</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2923</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="Q221" s="3">
         <v>29181</v>
@@ -51351,12 +51263,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2844</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>106</v>
       </c>
@@ -51409,13 +51316,13 @@
         <v>20</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>775</v>
@@ -51430,13 +51337,13 @@
         <v>236</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="BS221" s="3">
         <v>37069</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>121</v>
@@ -51457,13 +51364,13 @@
         <v>792</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="CE221" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="CG221" s="1" t="s">
         <v>2929</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2930</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2931</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>781</v>
@@ -51504,19 +51411,19 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2932</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2934</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="Q222" s="3">
         <v>30033</v>
@@ -51539,12 +51446,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2844</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>106</v>
       </c>
@@ -51600,13 +51502,13 @@
         <v>20</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="BI222" s="1" t="s">
         <v>1192</v>
@@ -51618,7 +51520,7 @@
         <v>105</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>121</v>
@@ -51636,16 +51538,16 @@
         <v>111</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="CD222" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2939</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CG222" s="1" t="s">
         <v>2940</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2941</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2942</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>1199</v>
@@ -51686,19 +51588,19 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="N223" s="1" t="s">
         <v>2943</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>2944</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2945</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="Q223" s="3">
         <v>26843</v>
@@ -51721,12 +51623,7 @@
       <c r="AA223" s="1">
         <v>0</v>
       </c>
-      <c r="AC223" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD223" s="1" t="s">
-        <v>2947</v>
-      </c>
+      <c r="AC223" s="3"/>
       <c r="AF223" s="1" t="s">
         <v>106</v>
       </c>
@@ -51773,7 +51670,7 @@
         <v>111</v>
       </c>
       <c r="AZ223" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="BB223" s="1">
         <v>11</v>
@@ -51782,16 +51679,16 @@
         <v>20</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="BI223" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>117</v>
@@ -51803,13 +51700,13 @@
         <v>236</v>
       </c>
       <c r="BR223" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BS223" s="3">
         <v>35125</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>121</v>
@@ -51827,19 +51724,19 @@
         <v>111</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="CD223" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="CG223" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>129</v>
@@ -51877,19 +51774,19 @@
         <v>496</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="Q224" s="3">
         <v>31362</v>
@@ -51967,7 +51864,7 @@
         <v>20</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>114</v>
@@ -51976,7 +51873,7 @@
         <v>117</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>121</v>
@@ -51994,13 +51891,13 @@
         <v>92</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="CG224" s="1" t="s">
         <v>129</v>
@@ -52044,19 +51941,19 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="Q225" s="3">
         <v>31362</v>
@@ -52134,7 +52031,7 @@
         <v>20</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>114</v>
@@ -52143,7 +52040,7 @@
         <v>117</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>121</v>
@@ -52164,10 +52061,10 @@
         <v>583</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="CG225" s="1" t="s">
         <v>129</v>
@@ -52211,19 +52108,19 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="Q226" s="3">
         <v>25903</v>
@@ -52304,19 +52201,19 @@
         <v>20</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="BG226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>121</v>
@@ -52334,16 +52231,16 @@
         <v>111</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="CE226" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="CG226" s="1" t="s">
         <v>2982</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2983</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2984</v>
-      </c>
-      <c r="CG226" s="1" t="s">
-        <v>2985</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>129</v>
@@ -52387,10 +52284,10 @@
         <v>263</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N227" s="1" t="s">
         <v>265</v>
@@ -52420,7 +52317,7 @@
         <v>42582</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>106</v>
@@ -52477,13 +52374,13 @@
         <v>0</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BI227" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>117</v>
@@ -52528,7 +52425,7 @@
         <v>277</v>
       </c>
       <c r="CG227" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>823</v>
@@ -52551,7 +52448,7 @@
         <v>191</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>92</v>
@@ -52563,22 +52460,22 @@
         <v>94</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="Q228" s="3">
         <v>17060</v>
@@ -52611,13 +52508,13 @@
         <v>42628</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG228" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="AH228" s="1" t="s">
         <v>138</v>
@@ -52662,22 +52559,22 @@
         <v>111</v>
       </c>
       <c r="AZ228" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="BB228" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC228" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD228" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="BH228" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="BI228" s="1" t="s">
         <v>3000</v>
-      </c>
-      <c r="BB228" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC228" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD228" s="1" t="s">
-        <v>3001</v>
-      </c>
-      <c r="BH228" s="1" t="s">
-        <v>3002</v>
-      </c>
-      <c r="BI228" s="1" t="s">
-        <v>3003</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>117</v>
@@ -52686,7 +52583,7 @@
         <v>105</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>121</v>
@@ -52695,7 +52592,7 @@
         <v>0</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>123</v>
@@ -52710,13 +52607,13 @@
         <v>125</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="CG228" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>129</v>
@@ -52730,13 +52627,13 @@
         <v>88</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>111</v>
@@ -52748,22 +52645,22 @@
         <v>94</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="Q229" s="3">
         <v>26864</v>
@@ -52793,7 +52690,7 @@
         <v>42735</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>106</v>
@@ -52847,10 +52744,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>117</v>
@@ -52862,13 +52759,13 @@
         <v>236</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="BS229" s="3">
         <v>102</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>121</v>
@@ -52880,7 +52777,7 @@
         <v>110</v>
       </c>
       <c r="BZ229" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="CA229" s="1" t="s">
         <v>123</v>
@@ -52889,16 +52786,16 @@
         <v>111</v>
       </c>
       <c r="CC229" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="CD229" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="CE229" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="CG229" s="1" t="s">
         <v>3020</v>
-      </c>
-      <c r="CD229" s="1" t="s">
-        <v>3021</v>
-      </c>
-      <c r="CE229" s="1" t="s">
-        <v>3022</v>
-      </c>
-      <c r="CG229" s="1" t="s">
-        <v>3023</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>129</v>
@@ -52939,16 +52836,16 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="Q230" s="3">
         <v>25379</v>
@@ -52978,7 +52875,7 @@
         <v>39800</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>249</v>
@@ -53032,10 +52929,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>117</v>
@@ -53047,13 +52944,13 @@
         <v>1719</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BS230" s="3">
         <v>35915</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>121</v>
@@ -53083,10 +52980,10 @@
         <v>448</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="CG230" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>129</v>
@@ -53109,7 +53006,7 @@
         <v>90</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>111</v>
@@ -53121,22 +53018,22 @@
         <v>94</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="Q231" s="3">
         <v>17470</v>
@@ -53166,7 +53063,7 @@
         <v>43100</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>106</v>
@@ -53223,10 +53120,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>117</v>
@@ -53235,7 +53132,7 @@
         <v>105</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>121</v>
@@ -53259,16 +53156,16 @@
         <v>111</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>129</v>
@@ -53291,7 +53188,7 @@
         <v>90</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>111</v>
@@ -53303,22 +53200,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="Q232" s="3">
         <v>23356</v>
@@ -53345,7 +53242,7 @@
         <v>43105</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>106</v>
@@ -53399,10 +53296,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>117</v>
@@ -53414,13 +53311,13 @@
         <v>102</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="BS232" s="3">
         <v>34412</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>121</v>
@@ -53429,7 +53326,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>123</v>
@@ -53438,16 +53335,16 @@
         <v>111</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>2403</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>129</v>
@@ -53464,13 +53361,13 @@
         <v>88</v>
       </c>
       <c r="C233" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>2517</v>
-      </c>
       <c r="E233" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>92</v>
@@ -53482,22 +53379,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="Q233" s="3">
         <v>17726</v>
@@ -53530,7 +53427,7 @@
         <v>43312</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>249</v>
@@ -53581,7 +53478,7 @@
         <v>111</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BB233" s="1">
         <v>0</v>
@@ -53590,10 +53487,10 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>117</v>
@@ -53602,7 +53499,7 @@
         <v>105</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>121</v>
@@ -53611,7 +53508,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>123</v>
@@ -53620,16 +53517,16 @@
         <v>111</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="CE233" s="1" t="s">
         <v>932</v>
       </c>
       <c r="CG233" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>129</v>
@@ -53652,7 +53549,7 @@
         <v>90</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>92</v>
@@ -53664,22 +53561,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="Q234" s="3">
         <v>17041</v>
@@ -53706,7 +53603,7 @@
         <v>42735</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>106</v>
@@ -53763,7 +53660,7 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>117</v>
@@ -53772,7 +53669,7 @@
         <v>105</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>121</v>
@@ -53784,7 +53681,7 @@
         <v>110</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>123</v>
@@ -53793,13 +53690,13 @@
         <v>111</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="CG234" s="1" t="s">
         <v>129</v>
@@ -53819,13 +53716,13 @@
         <v>88</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>2517</v>
-      </c>
       <c r="E235" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>111</v>
@@ -53837,22 +53734,22 @@
         <v>94</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="Q235" s="3">
         <v>30147</v>
@@ -53875,17 +53772,12 @@
       <c r="AA235" s="1">
         <v>0</v>
       </c>
-      <c r="AC235" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD235" s="1" t="s">
-        <v>2844</v>
-      </c>
+      <c r="AC235" s="3"/>
       <c r="AF235" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG235" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="AH235" s="1" t="s">
         <v>389</v>
@@ -53933,10 +53825,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>117</v>
@@ -53948,13 +53840,13 @@
         <v>102</v>
       </c>
       <c r="BR235" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BS235" s="3">
         <v>37124</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>121</v>
@@ -53963,7 +53855,7 @@
         <v>0</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>123</v>
@@ -53972,16 +53864,16 @@
         <v>111</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CD235" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>129</v>
@@ -54022,16 +53914,16 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="Q236" s="3">
         <v>17821</v>
@@ -54067,13 +53959,13 @@
         <v>43388</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>1300</v>
@@ -54118,7 +54010,7 @@
         <v>111</v>
       </c>
       <c r="AZ236" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BB236" s="1">
         <v>0</v>
@@ -54127,10 +54019,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>117</v>
@@ -54139,7 +54031,7 @@
         <v>105</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>121</v>
@@ -54157,16 +54049,16 @@
         <v>111</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="CE236" s="1" t="s">
         <v>527</v>
       </c>
       <c r="CG236" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>129</v>
@@ -54180,10 +54072,10 @@
         <v>87</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1298</v>
@@ -54198,7 +54090,7 @@
         <v>93</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>1298</v>
@@ -54207,19 +54099,19 @@
         <v>152</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P237" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="Q237" s="3">
         <v>20466</v>
@@ -54267,7 +54159,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -54300,19 +54192,19 @@
         <v>20</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>121</v>
@@ -54330,16 +54222,16 @@
         <v>111</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>319</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>129</v>
@@ -54353,10 +54245,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1298</v>
@@ -54371,7 +54263,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1298</v>
@@ -54380,19 +54272,19 @@
         <v>152</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="Q238" s="3">
         <v>24006</v>
@@ -54437,7 +54329,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -54473,19 +54365,19 @@
         <v>20</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>121</v>
@@ -54512,10 +54404,10 @@
         <v>1116</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>129</v>
@@ -54529,10 +54421,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1298</v>
@@ -54547,7 +54439,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1298</v>
@@ -54556,19 +54448,19 @@
         <v>152</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="Q239" s="3">
         <v>26193</v>
@@ -54613,7 +54505,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -54649,19 +54541,19 @@
         <v>20</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>121</v>
@@ -54682,16 +54574,16 @@
         <v>111</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="CD239" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="CE239" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="CG239" s="1" t="s">
         <v>3129</v>
-      </c>
-      <c r="CD239" s="1" t="s">
-        <v>3130</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>3131</v>
-      </c>
-      <c r="CG239" s="1" t="s">
-        <v>3132</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>129</v>
@@ -54705,10 +54597,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1298</v>
@@ -54723,7 +54615,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1298</v>
@@ -54732,19 +54624,19 @@
         <v>152</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="Q240" s="3">
         <v>24325</v>
@@ -54825,19 +54717,19 @@
         <v>20</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>121</v>
@@ -54858,7 +54750,7 @@
         <v>111</v>
       </c>
       <c r="CC240" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="CD240" s="1" t="s">
         <v>626</v>
@@ -54867,7 +54759,7 @@
         <v>527</v>
       </c>
       <c r="CG240" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>129</v>
@@ -54881,10 +54773,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1298</v>
@@ -54899,7 +54791,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1298</v>
@@ -54908,19 +54800,19 @@
         <v>152</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="Q241" s="3">
         <v>24848</v>
@@ -54968,7 +54860,7 @@
         <v>0</v>
       </c>
       <c r="AN241" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="AO241" s="1">
         <v>0</v>
@@ -55004,19 +54896,19 @@
         <v>20</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>121</v>
@@ -55040,13 +54932,13 @@
         <v>508</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>129</v>
@@ -55060,10 +54952,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1298</v>
@@ -55078,7 +54970,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1298</v>
@@ -55087,19 +54979,19 @@
         <v>152</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="Q242" s="3">
         <v>27702</v>
@@ -55180,19 +55072,19 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>121</v>
@@ -55213,16 +55105,16 @@
         <v>111</v>
       </c>
       <c r="CC242" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="CD242" s="1" t="s">
         <v>640</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>129</v>
@@ -55236,10 +55128,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1298</v>
@@ -55254,7 +55146,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1298</v>
@@ -55263,19 +55155,19 @@
         <v>152</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="Q243" s="3">
         <v>23289</v>
@@ -55305,7 +55197,7 @@
         <v>106</v>
       </c>
       <c r="AG243" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="AH243" s="1" t="s">
         <v>1300</v>
@@ -55323,7 +55215,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="AO243" s="1">
         <v>0</v>
@@ -55359,19 +55251,19 @@
         <v>20</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>121</v>
@@ -55392,16 +55284,16 @@
         <v>111</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1039</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>129</v>
@@ -55415,10 +55307,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1298</v>
@@ -55433,7 +55325,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1298</v>
@@ -55442,19 +55334,19 @@
         <v>152</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="Q244" s="3">
         <v>16546</v>
@@ -55502,7 +55394,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -55538,19 +55430,19 @@
         <v>20</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="BG244" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>121</v>
@@ -55574,13 +55466,13 @@
         <v>1024</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>129</v>
@@ -55594,10 +55486,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1298</v>
@@ -55612,7 +55504,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1298</v>
@@ -55621,19 +55513,19 @@
         <v>152</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="Q245" s="3">
         <v>12691</v>
@@ -55681,7 +55573,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -55717,19 +55609,19 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>121</v>
@@ -55756,10 +55648,10 @@
         <v>2221</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>129</v>
@@ -55773,10 +55665,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1298</v>
@@ -55791,7 +55683,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1298</v>
@@ -55800,19 +55692,19 @@
         <v>152</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="L246" s="1" t="s">
         <v>2342</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P246" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="Q246" s="3">
         <v>23611</v>
@@ -55842,7 +55734,7 @@
         <v>106</v>
       </c>
       <c r="AG246" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="AH246" s="1" t="s">
         <v>1300</v>
@@ -55857,7 +55749,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -55890,19 +55782,19 @@
         <v>20</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>121</v>
@@ -55920,16 +55812,16 @@
         <v>111</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="CD246" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="CE246" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="CG246" s="1" t="s">
         <v>3199</v>
-      </c>
-      <c r="CD246" s="1" t="s">
-        <v>3200</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>3201</v>
-      </c>
-      <c r="CG246" s="1" t="s">
-        <v>3202</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>129</v>
@@ -55943,10 +55835,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1298</v>
@@ -55961,7 +55853,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1298</v>
@@ -55970,13 +55862,13 @@
         <v>152</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2351</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -56060,19 +55952,19 @@
         <v>20</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>121</v>
@@ -56093,16 +55985,16 @@
         <v>2276</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3208</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3209</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3210</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3211</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>129</v>
@@ -56116,10 +56008,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1298</v>
@@ -56134,7 +56026,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1298</v>
@@ -56143,19 +56035,19 @@
         <v>152</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="Q248" s="3">
         <v>18056</v>
@@ -56233,19 +56125,19 @@
         <v>20</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>121</v>
@@ -56266,13 +56158,13 @@
         <v>1239</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="CG248" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>129</v>
@@ -56286,10 +56178,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1298</v>
@@ -56304,7 +56196,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1298</v>
@@ -56313,19 +56205,19 @@
         <v>152</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="Q249" s="3">
         <v>26349</v>
@@ -56370,7 +56262,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="AO249" s="1">
         <v>0</v>
@@ -56406,19 +56298,19 @@
         <v>20</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>121</v>
@@ -56439,16 +56331,16 @@
         <v>111</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>129</v>
@@ -56462,10 +56354,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1298</v>
@@ -56480,7 +56372,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1298</v>
@@ -56489,19 +56381,19 @@
         <v>152</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="Q250" s="3">
         <v>30589</v>
@@ -56549,7 +56441,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -56585,19 +56477,19 @@
         <v>20</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>121</v>
@@ -56618,16 +56510,16 @@
         <v>111</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="CD250" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="CE250" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="CG250" s="1" t="s">
         <v>3240</v>
-      </c>
-      <c r="CD250" s="1" t="s">
-        <v>3241</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>3242</v>
-      </c>
-      <c r="CG250" s="1" t="s">
-        <v>3243</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>129</v>
@@ -56641,10 +56533,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1298</v>
@@ -56659,7 +56551,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1298</v>
@@ -56668,19 +56560,19 @@
         <v>152</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="Q251" s="3">
         <v>27354</v>
@@ -56728,7 +56620,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -56764,19 +56656,19 @@
         <v>20</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>121</v>
@@ -56797,16 +56689,16 @@
         <v>111</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3251</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3252</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3253</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3254</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>129</v>
@@ -56820,10 +56712,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1298</v>
@@ -56838,7 +56730,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1298</v>
@@ -56847,19 +56739,19 @@
         <v>152</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="Q252" s="3">
         <v>13756</v>
@@ -56946,7 +56838,7 @@
         <v>20</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>114</v>
@@ -56973,10 +56865,10 @@
         <v>111</v>
       </c>
       <c r="CC252" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="CE252" s="1" t="s">
         <v>223</v>
@@ -56996,10 +56888,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1298</v>
@@ -57014,7 +56906,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1298</v>
@@ -57023,19 +56915,19 @@
         <v>152</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="Q253" s="3">
         <v>26074</v>
@@ -57083,7 +56975,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="AO253" s="1">
         <v>0</v>
@@ -57119,25 +57011,25 @@
         <v>20</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>121</v>
       </c>
       <c r="BW253" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BX253" s="1">
         <v>0</v>
@@ -57155,16 +57047,16 @@
         <v>111</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>1307</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>129</v>
@@ -57178,10 +57070,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1298</v>
@@ -57196,7 +57088,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1298</v>
@@ -57205,19 +57097,19 @@
         <v>152</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="Q254" s="3">
         <v>28808</v>
@@ -57262,7 +57154,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -57298,19 +57190,19 @@
         <v>20</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>121</v>
@@ -57331,16 +57223,16 @@
         <v>111</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>129</v>
@@ -57354,10 +57246,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1298</v>
@@ -57372,7 +57264,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1298</v>
@@ -57381,19 +57273,19 @@
         <v>152</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="R255" s="1" t="s">
         <v>136</v>
@@ -57414,7 +57306,7 @@
         <v>0</v>
       </c>
       <c r="AG255" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="AH255" s="1" t="s">
         <v>389</v>
@@ -57429,7 +57321,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -57459,19 +57351,19 @@
         <v>20</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>121</v>
@@ -57489,16 +57381,16 @@
         <v>111</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>319</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>129</v>
@@ -57512,10 +57404,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1298</v>
@@ -57530,7 +57422,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1298</v>
@@ -57539,19 +57431,19 @@
         <v>152</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="R256" s="1" t="s">
         <v>136</v>
@@ -57629,19 +57521,19 @@
         <v>20</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>121</v>
@@ -57659,16 +57551,16 @@
         <v>111</v>
       </c>
       <c r="CC256" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="CD256" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="CG256" s="1" t="s">
         <v>3301</v>
-      </c>
-      <c r="CD256" s="1" t="s">
-        <v>3302</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3303</v>
-      </c>
-      <c r="CG256" s="1" t="s">
-        <v>3304</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>129</v>
@@ -57682,10 +57574,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1298</v>
@@ -57700,7 +57592,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1298</v>
@@ -57709,19 +57601,19 @@
         <v>152</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="Q257" s="3">
         <v>29466</v>
@@ -57802,19 +57694,19 @@
         <v>20</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>121</v>
@@ -57832,16 +57724,16 @@
         <v>111</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3312</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3313</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3314</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3315</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>129</v>
@@ -57855,10 +57747,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1298</v>
@@ -57873,7 +57765,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1298</v>
@@ -57882,22 +57774,22 @@
         <v>152</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="Q258" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="R258" s="1" t="s">
         <v>136</v>
@@ -57939,7 +57831,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="AO258" s="1">
         <v>0</v>
@@ -57972,19 +57864,19 @@
         <v>20</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>121</v>
@@ -58002,16 +57894,16 @@
         <v>111</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3324</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3325</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3326</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3327</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>129</v>
@@ -58052,16 +57944,16 @@
         <v>96</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -58094,7 +57986,7 @@
         <v>43980</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>106</v>
@@ -58151,7 +58043,7 @@
         <v>1921</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>117</v>
@@ -58163,13 +58055,13 @@
         <v>1719</v>
       </c>
       <c r="BR259" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BS259" s="3">
         <v>35915</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>121</v>
@@ -58193,7 +58085,7 @@
         <v>448</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="CG259" s="1" t="s">
         <v>1922</v>
@@ -58237,16 +58129,16 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -58279,7 +58171,7 @@
         <v>44008</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>106</v>
@@ -58336,10 +58228,10 @@
         <v>20</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>117</v>
@@ -58348,7 +58240,7 @@
         <v>105</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>121</v>
@@ -58372,10 +58264,10 @@
         <v>348</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="CG260" s="1" t="s">
         <v>823</v>
@@ -58419,19 +58311,19 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="Q261" s="3">
         <v>28577</v>
@@ -58461,7 +58353,7 @@
         <v>106</v>
       </c>
       <c r="AG261" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="AH261" s="1" t="s">
         <v>60</v>
@@ -58512,13 +58404,13 @@
         <v>20</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>117</v>
@@ -58527,7 +58419,7 @@
         <v>105</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>121</v>
@@ -58548,13 +58440,13 @@
         <v>348</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>129</v>
@@ -58571,7 +58463,7 @@
         <v>88</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>495</v>
@@ -58595,19 +58487,19 @@
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P262" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="Q262" s="3">
         <v>23039</v>
@@ -58685,13 +58577,13 @@
         <v>20</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>117</v>
@@ -58703,13 +58595,13 @@
         <v>236</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="BS262" s="3">
         <v>34307</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>121</v>
@@ -58718,7 +58610,7 @@
         <v>0</v>
       </c>
       <c r="BZ262" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="CA262" s="1" t="s">
         <v>123</v>
@@ -58727,16 +58619,16 @@
         <v>111</v>
       </c>
       <c r="CC262" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="CD262" s="1" t="s">
         <v>435</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>129</v>
@@ -58753,10 +58645,10 @@
         <v>88</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>152</v>
@@ -58771,22 +58663,22 @@
         <v>94</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
@@ -58819,7 +58711,7 @@
         <v>44135</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>106</v>
@@ -58876,10 +58768,10 @@
         <v>20</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>117</v>
@@ -58888,7 +58780,7 @@
         <v>105</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>121</v>
@@ -58897,7 +58789,7 @@
         <v>0</v>
       </c>
       <c r="BZ263" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="CA263" s="1" t="s">
         <v>123</v>
@@ -58909,10 +58801,10 @@
         <v>1324</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="CG263" s="1" t="s">
         <v>129</v>
@@ -58950,20 +58842,20 @@
         <v>94</v>
       </c>
       <c r="I264" s="4" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="J264" s="4" t="s">
         <v>96</v>
       </c>
       <c r="K264" s="4" t="s">
+        <v>2519</v>
+      </c>
+      <c r="L264" s="4" t="s">
         <v>2520</v>
-      </c>
-      <c r="L264" s="4" t="s">
-        <v>2521</v>
       </c>
       <c r="M264" s="4"/>
       <c r="N264" s="4" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="O264" s="4" t="s">
         <v>100</v>
@@ -59055,7 +58947,7 @@
         <v>111</v>
       </c>
       <c r="AZ264" s="4" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BA264" s="4" t="s">
         <v>288</v>
@@ -59067,7 +58959,7 @@
         <v>20</v>
       </c>
       <c r="BD264" s="4" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="BE264" s="4"/>
       <c r="BF264" s="4"/>
@@ -59075,7 +58967,7 @@
         <v>114</v>
       </c>
       <c r="BH264" s="4" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="BI264" s="4"/>
       <c r="BJ264" s="4"/>
@@ -59090,7 +58982,7 @@
       <c r="BQ264" s="4"/>
       <c r="BR264" s="4"/>
       <c r="BT264" s="4" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BU264" s="4" t="s">
         <v>121</v>
@@ -59104,7 +58996,7 @@
         <v>110</v>
       </c>
       <c r="BZ264" s="4" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="CA264" s="4" t="s">
         <v>123</v>
@@ -59113,17 +59005,17 @@
         <v>111</v>
       </c>
       <c r="CC264" s="4" t="s">
+        <v>2527</v>
+      </c>
+      <c r="CD264" s="4" t="s">
         <v>2528</v>
       </c>
-      <c r="CD264" s="4" t="s">
+      <c r="CE264" s="4" t="s">
         <v>2529</v>
-      </c>
-      <c r="CE264" s="4" t="s">
-        <v>2530</v>
       </c>
       <c r="CF264" s="4"/>
       <c r="CG264" s="4" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="CH264" s="4" t="s">
         <v>129</v>
@@ -59158,7 +59050,7 @@
         <v>94</v>
       </c>
       <c r="I265" s="4" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="J265" s="4" t="s">
         <v>96</v>
@@ -59270,7 +59162,7 @@
         <v>20</v>
       </c>
       <c r="BD265" s="4" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="BE265" s="4"/>
       <c r="BF265" s="4"/>
@@ -59278,7 +59170,7 @@
         <v>114</v>
       </c>
       <c r="BH265" s="4" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="BI265" s="4"/>
       <c r="BJ265" s="4"/>
@@ -59307,7 +59199,7 @@
         <v>110</v>
       </c>
       <c r="BZ265" s="4" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="CA265" s="4" t="s">
         <v>123</v>
@@ -59326,7 +59218,7 @@
       </c>
       <c r="CF265" s="4"/>
       <c r="CG265" s="4" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="CH265" s="4" t="s">
         <v>129</v>
@@ -59336,6 +59228,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI265" xr:uid="{C7E6F376-39E9-428E-9A42-CC557F052795}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>